--- a/RFS/Resources/login/user_login-测试.xlsx
+++ b/RFS/Resources/login/user_login-测试.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F604C51-5BE5-469A-B449-B12D5E31EFEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="840" yWindow="828" windowWidth="22200" windowHeight="12132" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="63">
   <si>
     <t>货代版本</t>
   </si>
@@ -124,12 +125,6 @@
     <t>yeyejy.200jit.com</t>
   </si>
   <si>
-    <t>吴俞超</t>
-  </si>
-  <si>
-    <t>m3-wyc</t>
-  </si>
-  <si>
     <t>110110110</t>
   </si>
   <si>
@@ -240,12 +235,20 @@
   </si>
   <si>
     <t>测试部</t>
+  </si>
+  <si>
+    <t>往来单位的发票抬头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大香蕉公用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
@@ -393,7 +396,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -468,6 +471,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -503,6 +523,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -678,594 +715,594 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.125" customWidth="1"/>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
     <col min="3" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="13.125" customWidth="1"/>
-    <col min="258" max="258" width="15.625" customWidth="1"/>
+    <col min="257" max="257" width="13.109375" customWidth="1"/>
+    <col min="258" max="258" width="15.6640625" customWidth="1"/>
     <col min="259" max="260" width="26" customWidth="1"/>
-    <col min="261" max="261" width="15.5" customWidth="1"/>
-    <col min="262" max="262" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="263" max="263" width="15.25" customWidth="1"/>
-    <col min="264" max="264" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="265" max="265" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="15.44140625" customWidth="1"/>
+    <col min="262" max="262" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="15.21875" customWidth="1"/>
+    <col min="264" max="264" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="266" max="266" width="24" bestFit="1" customWidth="1"/>
-    <col min="513" max="513" width="13.125" customWidth="1"/>
-    <col min="514" max="514" width="15.625" customWidth="1"/>
+    <col min="513" max="513" width="13.109375" customWidth="1"/>
+    <col min="514" max="514" width="15.6640625" customWidth="1"/>
     <col min="515" max="516" width="26" customWidth="1"/>
-    <col min="517" max="517" width="15.5" customWidth="1"/>
-    <col min="518" max="518" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="519" max="519" width="15.25" customWidth="1"/>
-    <col min="520" max="520" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="521" max="521" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="15.44140625" customWidth="1"/>
+    <col min="518" max="518" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="15.21875" customWidth="1"/>
+    <col min="520" max="520" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="521" max="521" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="522" max="522" width="24" bestFit="1" customWidth="1"/>
-    <col min="769" max="769" width="13.125" customWidth="1"/>
-    <col min="770" max="770" width="15.625" customWidth="1"/>
+    <col min="769" max="769" width="13.109375" customWidth="1"/>
+    <col min="770" max="770" width="15.6640625" customWidth="1"/>
     <col min="771" max="772" width="26" customWidth="1"/>
-    <col min="773" max="773" width="15.5" customWidth="1"/>
-    <col min="774" max="774" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="775" max="775" width="15.25" customWidth="1"/>
-    <col min="776" max="776" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="777" max="777" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="773" max="773" width="15.44140625" customWidth="1"/>
+    <col min="774" max="774" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="775" max="775" width="15.21875" customWidth="1"/>
+    <col min="776" max="776" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="777" max="777" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="778" max="778" width="24" bestFit="1" customWidth="1"/>
-    <col min="1025" max="1025" width="13.125" customWidth="1"/>
-    <col min="1026" max="1026" width="15.625" customWidth="1"/>
+    <col min="1025" max="1025" width="13.109375" customWidth="1"/>
+    <col min="1026" max="1026" width="15.6640625" customWidth="1"/>
     <col min="1027" max="1028" width="26" customWidth="1"/>
-    <col min="1029" max="1029" width="15.5" customWidth="1"/>
-    <col min="1030" max="1030" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="1031" max="1031" width="15.25" customWidth="1"/>
-    <col min="1032" max="1032" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="1033" max="1033" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1029" width="15.44140625" customWidth="1"/>
+    <col min="1030" max="1030" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1031" width="15.21875" customWidth="1"/>
+    <col min="1032" max="1032" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1033" max="1033" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="1034" max="1034" width="24" bestFit="1" customWidth="1"/>
-    <col min="1281" max="1281" width="13.125" customWidth="1"/>
-    <col min="1282" max="1282" width="15.625" customWidth="1"/>
+    <col min="1281" max="1281" width="13.109375" customWidth="1"/>
+    <col min="1282" max="1282" width="15.6640625" customWidth="1"/>
     <col min="1283" max="1284" width="26" customWidth="1"/>
-    <col min="1285" max="1285" width="15.5" customWidth="1"/>
-    <col min="1286" max="1286" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="1287" max="1287" width="15.25" customWidth="1"/>
-    <col min="1288" max="1288" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="1289" max="1289" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1285" width="15.44140625" customWidth="1"/>
+    <col min="1286" max="1286" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1287" width="15.21875" customWidth="1"/>
+    <col min="1288" max="1288" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1289" max="1289" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="1290" max="1290" width="24" bestFit="1" customWidth="1"/>
-    <col min="1537" max="1537" width="13.125" customWidth="1"/>
-    <col min="1538" max="1538" width="15.625" customWidth="1"/>
+    <col min="1537" max="1537" width="13.109375" customWidth="1"/>
+    <col min="1538" max="1538" width="15.6640625" customWidth="1"/>
     <col min="1539" max="1540" width="26" customWidth="1"/>
-    <col min="1541" max="1541" width="15.5" customWidth="1"/>
-    <col min="1542" max="1542" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="1543" max="1543" width="15.25" customWidth="1"/>
-    <col min="1544" max="1544" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="1545" max="1545" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1541" width="15.44140625" customWidth="1"/>
+    <col min="1542" max="1542" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1543" width="15.21875" customWidth="1"/>
+    <col min="1544" max="1544" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1545" max="1545" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="1546" max="1546" width="24" bestFit="1" customWidth="1"/>
-    <col min="1793" max="1793" width="13.125" customWidth="1"/>
-    <col min="1794" max="1794" width="15.625" customWidth="1"/>
+    <col min="1793" max="1793" width="13.109375" customWidth="1"/>
+    <col min="1794" max="1794" width="15.6640625" customWidth="1"/>
     <col min="1795" max="1796" width="26" customWidth="1"/>
-    <col min="1797" max="1797" width="15.5" customWidth="1"/>
-    <col min="1798" max="1798" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="1799" max="1799" width="15.25" customWidth="1"/>
-    <col min="1800" max="1800" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="1801" max="1801" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1797" width="15.44140625" customWidth="1"/>
+    <col min="1798" max="1798" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1799" max="1799" width="15.21875" customWidth="1"/>
+    <col min="1800" max="1800" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1801" max="1801" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="1802" max="1802" width="24" bestFit="1" customWidth="1"/>
-    <col min="2049" max="2049" width="13.125" customWidth="1"/>
-    <col min="2050" max="2050" width="15.625" customWidth="1"/>
+    <col min="2049" max="2049" width="13.109375" customWidth="1"/>
+    <col min="2050" max="2050" width="15.6640625" customWidth="1"/>
     <col min="2051" max="2052" width="26" customWidth="1"/>
-    <col min="2053" max="2053" width="15.5" customWidth="1"/>
-    <col min="2054" max="2054" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="2055" max="2055" width="15.25" customWidth="1"/>
-    <col min="2056" max="2056" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2057" max="2057" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2053" width="15.44140625" customWidth="1"/>
+    <col min="2054" max="2054" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2055" width="15.21875" customWidth="1"/>
+    <col min="2056" max="2056" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2057" max="2057" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="2058" max="2058" width="24" bestFit="1" customWidth="1"/>
-    <col min="2305" max="2305" width="13.125" customWidth="1"/>
-    <col min="2306" max="2306" width="15.625" customWidth="1"/>
+    <col min="2305" max="2305" width="13.109375" customWidth="1"/>
+    <col min="2306" max="2306" width="15.6640625" customWidth="1"/>
     <col min="2307" max="2308" width="26" customWidth="1"/>
-    <col min="2309" max="2309" width="15.5" customWidth="1"/>
-    <col min="2310" max="2310" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="2311" max="2311" width="15.25" customWidth="1"/>
-    <col min="2312" max="2312" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2313" max="2313" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2309" width="15.44140625" customWidth="1"/>
+    <col min="2310" max="2310" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2311" width="15.21875" customWidth="1"/>
+    <col min="2312" max="2312" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2313" max="2313" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="2314" max="2314" width="24" bestFit="1" customWidth="1"/>
-    <col min="2561" max="2561" width="13.125" customWidth="1"/>
-    <col min="2562" max="2562" width="15.625" customWidth="1"/>
+    <col min="2561" max="2561" width="13.109375" customWidth="1"/>
+    <col min="2562" max="2562" width="15.6640625" customWidth="1"/>
     <col min="2563" max="2564" width="26" customWidth="1"/>
-    <col min="2565" max="2565" width="15.5" customWidth="1"/>
-    <col min="2566" max="2566" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="2567" max="2567" width="15.25" customWidth="1"/>
-    <col min="2568" max="2568" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2569" max="2569" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2565" width="15.44140625" customWidth="1"/>
+    <col min="2566" max="2566" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2567" width="15.21875" customWidth="1"/>
+    <col min="2568" max="2568" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2569" max="2569" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="2570" max="2570" width="24" bestFit="1" customWidth="1"/>
-    <col min="2817" max="2817" width="13.125" customWidth="1"/>
-    <col min="2818" max="2818" width="15.625" customWidth="1"/>
+    <col min="2817" max="2817" width="13.109375" customWidth="1"/>
+    <col min="2818" max="2818" width="15.6640625" customWidth="1"/>
     <col min="2819" max="2820" width="26" customWidth="1"/>
-    <col min="2821" max="2821" width="15.5" customWidth="1"/>
-    <col min="2822" max="2822" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="2823" max="2823" width="15.25" customWidth="1"/>
-    <col min="2824" max="2824" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2825" max="2825" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2821" width="15.44140625" customWidth="1"/>
+    <col min="2822" max="2822" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2823" max="2823" width="15.21875" customWidth="1"/>
+    <col min="2824" max="2824" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2825" max="2825" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="2826" max="2826" width="24" bestFit="1" customWidth="1"/>
-    <col min="3073" max="3073" width="13.125" customWidth="1"/>
-    <col min="3074" max="3074" width="15.625" customWidth="1"/>
+    <col min="3073" max="3073" width="13.109375" customWidth="1"/>
+    <col min="3074" max="3074" width="15.6640625" customWidth="1"/>
     <col min="3075" max="3076" width="26" customWidth="1"/>
-    <col min="3077" max="3077" width="15.5" customWidth="1"/>
-    <col min="3078" max="3078" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="3079" max="3079" width="15.25" customWidth="1"/>
-    <col min="3080" max="3080" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3081" max="3081" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3077" width="15.44140625" customWidth="1"/>
+    <col min="3078" max="3078" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3079" width="15.21875" customWidth="1"/>
+    <col min="3080" max="3080" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3081" max="3081" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3082" max="3082" width="24" bestFit="1" customWidth="1"/>
-    <col min="3329" max="3329" width="13.125" customWidth="1"/>
-    <col min="3330" max="3330" width="15.625" customWidth="1"/>
+    <col min="3329" max="3329" width="13.109375" customWidth="1"/>
+    <col min="3330" max="3330" width="15.6640625" customWidth="1"/>
     <col min="3331" max="3332" width="26" customWidth="1"/>
-    <col min="3333" max="3333" width="15.5" customWidth="1"/>
-    <col min="3334" max="3334" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="3335" max="3335" width="15.25" customWidth="1"/>
-    <col min="3336" max="3336" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3337" max="3337" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3333" width="15.44140625" customWidth="1"/>
+    <col min="3334" max="3334" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3335" width="15.21875" customWidth="1"/>
+    <col min="3336" max="3336" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3337" max="3337" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3338" max="3338" width="24" bestFit="1" customWidth="1"/>
-    <col min="3585" max="3585" width="13.125" customWidth="1"/>
-    <col min="3586" max="3586" width="15.625" customWidth="1"/>
+    <col min="3585" max="3585" width="13.109375" customWidth="1"/>
+    <col min="3586" max="3586" width="15.6640625" customWidth="1"/>
     <col min="3587" max="3588" width="26" customWidth="1"/>
-    <col min="3589" max="3589" width="15.5" customWidth="1"/>
-    <col min="3590" max="3590" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="3591" max="3591" width="15.25" customWidth="1"/>
-    <col min="3592" max="3592" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3593" max="3593" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3589" width="15.44140625" customWidth="1"/>
+    <col min="3590" max="3590" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3591" width="15.21875" customWidth="1"/>
+    <col min="3592" max="3592" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3593" max="3593" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3594" max="3594" width="24" bestFit="1" customWidth="1"/>
-    <col min="3841" max="3841" width="13.125" customWidth="1"/>
-    <col min="3842" max="3842" width="15.625" customWidth="1"/>
+    <col min="3841" max="3841" width="13.109375" customWidth="1"/>
+    <col min="3842" max="3842" width="15.6640625" customWidth="1"/>
     <col min="3843" max="3844" width="26" customWidth="1"/>
-    <col min="3845" max="3845" width="15.5" customWidth="1"/>
-    <col min="3846" max="3846" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="3847" max="3847" width="15.25" customWidth="1"/>
-    <col min="3848" max="3848" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3849" max="3849" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3845" width="15.44140625" customWidth="1"/>
+    <col min="3846" max="3846" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3847" max="3847" width="15.21875" customWidth="1"/>
+    <col min="3848" max="3848" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3849" max="3849" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3850" max="3850" width="24" bestFit="1" customWidth="1"/>
-    <col min="4097" max="4097" width="13.125" customWidth="1"/>
-    <col min="4098" max="4098" width="15.625" customWidth="1"/>
+    <col min="4097" max="4097" width="13.109375" customWidth="1"/>
+    <col min="4098" max="4098" width="15.6640625" customWidth="1"/>
     <col min="4099" max="4100" width="26" customWidth="1"/>
-    <col min="4101" max="4101" width="15.5" customWidth="1"/>
-    <col min="4102" max="4102" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="4103" max="4103" width="15.25" customWidth="1"/>
-    <col min="4104" max="4104" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4105" max="4105" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4101" width="15.44140625" customWidth="1"/>
+    <col min="4102" max="4102" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4103" width="15.21875" customWidth="1"/>
+    <col min="4104" max="4104" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4105" max="4105" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="4106" max="4106" width="24" bestFit="1" customWidth="1"/>
-    <col min="4353" max="4353" width="13.125" customWidth="1"/>
-    <col min="4354" max="4354" width="15.625" customWidth="1"/>
+    <col min="4353" max="4353" width="13.109375" customWidth="1"/>
+    <col min="4354" max="4354" width="15.6640625" customWidth="1"/>
     <col min="4355" max="4356" width="26" customWidth="1"/>
-    <col min="4357" max="4357" width="15.5" customWidth="1"/>
-    <col min="4358" max="4358" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="4359" max="4359" width="15.25" customWidth="1"/>
-    <col min="4360" max="4360" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4361" max="4361" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4357" width="15.44140625" customWidth="1"/>
+    <col min="4358" max="4358" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4359" width="15.21875" customWidth="1"/>
+    <col min="4360" max="4360" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4361" max="4361" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="4362" max="4362" width="24" bestFit="1" customWidth="1"/>
-    <col min="4609" max="4609" width="13.125" customWidth="1"/>
-    <col min="4610" max="4610" width="15.625" customWidth="1"/>
+    <col min="4609" max="4609" width="13.109375" customWidth="1"/>
+    <col min="4610" max="4610" width="15.6640625" customWidth="1"/>
     <col min="4611" max="4612" width="26" customWidth="1"/>
-    <col min="4613" max="4613" width="15.5" customWidth="1"/>
-    <col min="4614" max="4614" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="4615" max="4615" width="15.25" customWidth="1"/>
-    <col min="4616" max="4616" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4617" max="4617" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4613" width="15.44140625" customWidth="1"/>
+    <col min="4614" max="4614" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4615" width="15.21875" customWidth="1"/>
+    <col min="4616" max="4616" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4617" max="4617" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="4618" max="4618" width="24" bestFit="1" customWidth="1"/>
-    <col min="4865" max="4865" width="13.125" customWidth="1"/>
-    <col min="4866" max="4866" width="15.625" customWidth="1"/>
+    <col min="4865" max="4865" width="13.109375" customWidth="1"/>
+    <col min="4866" max="4866" width="15.6640625" customWidth="1"/>
     <col min="4867" max="4868" width="26" customWidth="1"/>
-    <col min="4869" max="4869" width="15.5" customWidth="1"/>
-    <col min="4870" max="4870" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="4871" max="4871" width="15.25" customWidth="1"/>
-    <col min="4872" max="4872" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4873" max="4873" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4869" width="15.44140625" customWidth="1"/>
+    <col min="4870" max="4870" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="4871" max="4871" width="15.21875" customWidth="1"/>
+    <col min="4872" max="4872" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4873" max="4873" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="4874" max="4874" width="24" bestFit="1" customWidth="1"/>
-    <col min="5121" max="5121" width="13.125" customWidth="1"/>
-    <col min="5122" max="5122" width="15.625" customWidth="1"/>
+    <col min="5121" max="5121" width="13.109375" customWidth="1"/>
+    <col min="5122" max="5122" width="15.6640625" customWidth="1"/>
     <col min="5123" max="5124" width="26" customWidth="1"/>
-    <col min="5125" max="5125" width="15.5" customWidth="1"/>
-    <col min="5126" max="5126" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5127" max="5127" width="15.25" customWidth="1"/>
-    <col min="5128" max="5128" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5129" max="5129" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5125" width="15.44140625" customWidth="1"/>
+    <col min="5126" max="5126" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5127" width="15.21875" customWidth="1"/>
+    <col min="5128" max="5128" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5129" max="5129" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="5130" max="5130" width="24" bestFit="1" customWidth="1"/>
-    <col min="5377" max="5377" width="13.125" customWidth="1"/>
-    <col min="5378" max="5378" width="15.625" customWidth="1"/>
+    <col min="5377" max="5377" width="13.109375" customWidth="1"/>
+    <col min="5378" max="5378" width="15.6640625" customWidth="1"/>
     <col min="5379" max="5380" width="26" customWidth="1"/>
-    <col min="5381" max="5381" width="15.5" customWidth="1"/>
-    <col min="5382" max="5382" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5383" max="5383" width="15.25" customWidth="1"/>
-    <col min="5384" max="5384" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5385" max="5385" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5381" width="15.44140625" customWidth="1"/>
+    <col min="5382" max="5382" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5383" width="15.21875" customWidth="1"/>
+    <col min="5384" max="5384" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5385" max="5385" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="5386" max="5386" width="24" bestFit="1" customWidth="1"/>
-    <col min="5633" max="5633" width="13.125" customWidth="1"/>
-    <col min="5634" max="5634" width="15.625" customWidth="1"/>
+    <col min="5633" max="5633" width="13.109375" customWidth="1"/>
+    <col min="5634" max="5634" width="15.6640625" customWidth="1"/>
     <col min="5635" max="5636" width="26" customWidth="1"/>
-    <col min="5637" max="5637" width="15.5" customWidth="1"/>
-    <col min="5638" max="5638" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5639" max="5639" width="15.25" customWidth="1"/>
-    <col min="5640" max="5640" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5641" max="5641" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5637" width="15.44140625" customWidth="1"/>
+    <col min="5638" max="5638" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5639" width="15.21875" customWidth="1"/>
+    <col min="5640" max="5640" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5641" max="5641" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="5642" max="5642" width="24" bestFit="1" customWidth="1"/>
-    <col min="5889" max="5889" width="13.125" customWidth="1"/>
-    <col min="5890" max="5890" width="15.625" customWidth="1"/>
+    <col min="5889" max="5889" width="13.109375" customWidth="1"/>
+    <col min="5890" max="5890" width="15.6640625" customWidth="1"/>
     <col min="5891" max="5892" width="26" customWidth="1"/>
-    <col min="5893" max="5893" width="15.5" customWidth="1"/>
-    <col min="5894" max="5894" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5895" max="5895" width="15.25" customWidth="1"/>
-    <col min="5896" max="5896" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5897" max="5897" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5893" width="15.44140625" customWidth="1"/>
+    <col min="5894" max="5894" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5895" max="5895" width="15.21875" customWidth="1"/>
+    <col min="5896" max="5896" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5897" max="5897" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="5898" max="5898" width="24" bestFit="1" customWidth="1"/>
-    <col min="6145" max="6145" width="13.125" customWidth="1"/>
-    <col min="6146" max="6146" width="15.625" customWidth="1"/>
+    <col min="6145" max="6145" width="13.109375" customWidth="1"/>
+    <col min="6146" max="6146" width="15.6640625" customWidth="1"/>
     <col min="6147" max="6148" width="26" customWidth="1"/>
-    <col min="6149" max="6149" width="15.5" customWidth="1"/>
-    <col min="6150" max="6150" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="6151" max="6151" width="15.25" customWidth="1"/>
-    <col min="6152" max="6152" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6153" max="6153" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6149" width="15.44140625" customWidth="1"/>
+    <col min="6150" max="6150" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6151" width="15.21875" customWidth="1"/>
+    <col min="6152" max="6152" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="6153" max="6153" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="6154" max="6154" width="24" bestFit="1" customWidth="1"/>
-    <col min="6401" max="6401" width="13.125" customWidth="1"/>
-    <col min="6402" max="6402" width="15.625" customWidth="1"/>
+    <col min="6401" max="6401" width="13.109375" customWidth="1"/>
+    <col min="6402" max="6402" width="15.6640625" customWidth="1"/>
     <col min="6403" max="6404" width="26" customWidth="1"/>
-    <col min="6405" max="6405" width="15.5" customWidth="1"/>
-    <col min="6406" max="6406" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="6407" max="6407" width="15.25" customWidth="1"/>
-    <col min="6408" max="6408" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6409" max="6409" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6405" width="15.44140625" customWidth="1"/>
+    <col min="6406" max="6406" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6407" width="15.21875" customWidth="1"/>
+    <col min="6408" max="6408" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="6409" max="6409" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="6410" max="6410" width="24" bestFit="1" customWidth="1"/>
-    <col min="6657" max="6657" width="13.125" customWidth="1"/>
-    <col min="6658" max="6658" width="15.625" customWidth="1"/>
+    <col min="6657" max="6657" width="13.109375" customWidth="1"/>
+    <col min="6658" max="6658" width="15.6640625" customWidth="1"/>
     <col min="6659" max="6660" width="26" customWidth="1"/>
-    <col min="6661" max="6661" width="15.5" customWidth="1"/>
-    <col min="6662" max="6662" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="6663" max="6663" width="15.25" customWidth="1"/>
-    <col min="6664" max="6664" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6665" max="6665" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6661" width="15.44140625" customWidth="1"/>
+    <col min="6662" max="6662" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6663" width="15.21875" customWidth="1"/>
+    <col min="6664" max="6664" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="6665" max="6665" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="6666" max="6666" width="24" bestFit="1" customWidth="1"/>
-    <col min="6913" max="6913" width="13.125" customWidth="1"/>
-    <col min="6914" max="6914" width="15.625" customWidth="1"/>
+    <col min="6913" max="6913" width="13.109375" customWidth="1"/>
+    <col min="6914" max="6914" width="15.6640625" customWidth="1"/>
     <col min="6915" max="6916" width="26" customWidth="1"/>
-    <col min="6917" max="6917" width="15.5" customWidth="1"/>
-    <col min="6918" max="6918" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="6919" max="6919" width="15.25" customWidth="1"/>
-    <col min="6920" max="6920" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6921" max="6921" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6917" width="15.44140625" customWidth="1"/>
+    <col min="6918" max="6918" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6919" max="6919" width="15.21875" customWidth="1"/>
+    <col min="6920" max="6920" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="6921" max="6921" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="6922" max="6922" width="24" bestFit="1" customWidth="1"/>
-    <col min="7169" max="7169" width="13.125" customWidth="1"/>
-    <col min="7170" max="7170" width="15.625" customWidth="1"/>
+    <col min="7169" max="7169" width="13.109375" customWidth="1"/>
+    <col min="7170" max="7170" width="15.6640625" customWidth="1"/>
     <col min="7171" max="7172" width="26" customWidth="1"/>
-    <col min="7173" max="7173" width="15.5" customWidth="1"/>
-    <col min="7174" max="7174" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="7175" max="7175" width="15.25" customWidth="1"/>
-    <col min="7176" max="7176" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7177" max="7177" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7173" width="15.44140625" customWidth="1"/>
+    <col min="7174" max="7174" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7175" width="15.21875" customWidth="1"/>
+    <col min="7176" max="7176" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="7177" max="7177" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="7178" max="7178" width="24" bestFit="1" customWidth="1"/>
-    <col min="7425" max="7425" width="13.125" customWidth="1"/>
-    <col min="7426" max="7426" width="15.625" customWidth="1"/>
+    <col min="7425" max="7425" width="13.109375" customWidth="1"/>
+    <col min="7426" max="7426" width="15.6640625" customWidth="1"/>
     <col min="7427" max="7428" width="26" customWidth="1"/>
-    <col min="7429" max="7429" width="15.5" customWidth="1"/>
-    <col min="7430" max="7430" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="7431" max="7431" width="15.25" customWidth="1"/>
-    <col min="7432" max="7432" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7433" max="7433" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7429" width="15.44140625" customWidth="1"/>
+    <col min="7430" max="7430" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7431" width="15.21875" customWidth="1"/>
+    <col min="7432" max="7432" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="7433" max="7433" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="7434" max="7434" width="24" bestFit="1" customWidth="1"/>
-    <col min="7681" max="7681" width="13.125" customWidth="1"/>
-    <col min="7682" max="7682" width="15.625" customWidth="1"/>
+    <col min="7681" max="7681" width="13.109375" customWidth="1"/>
+    <col min="7682" max="7682" width="15.6640625" customWidth="1"/>
     <col min="7683" max="7684" width="26" customWidth="1"/>
-    <col min="7685" max="7685" width="15.5" customWidth="1"/>
-    <col min="7686" max="7686" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="7687" max="7687" width="15.25" customWidth="1"/>
-    <col min="7688" max="7688" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7689" max="7689" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7685" width="15.44140625" customWidth="1"/>
+    <col min="7686" max="7686" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7687" width="15.21875" customWidth="1"/>
+    <col min="7688" max="7688" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="7689" max="7689" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="7690" max="7690" width="24" bestFit="1" customWidth="1"/>
-    <col min="7937" max="7937" width="13.125" customWidth="1"/>
-    <col min="7938" max="7938" width="15.625" customWidth="1"/>
+    <col min="7937" max="7937" width="13.109375" customWidth="1"/>
+    <col min="7938" max="7938" width="15.6640625" customWidth="1"/>
     <col min="7939" max="7940" width="26" customWidth="1"/>
-    <col min="7941" max="7941" width="15.5" customWidth="1"/>
-    <col min="7942" max="7942" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="7943" max="7943" width="15.25" customWidth="1"/>
-    <col min="7944" max="7944" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7945" max="7945" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7941" width="15.44140625" customWidth="1"/>
+    <col min="7942" max="7942" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="7943" max="7943" width="15.21875" customWidth="1"/>
+    <col min="7944" max="7944" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="7945" max="7945" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="7946" max="7946" width="24" bestFit="1" customWidth="1"/>
-    <col min="8193" max="8193" width="13.125" customWidth="1"/>
-    <col min="8194" max="8194" width="15.625" customWidth="1"/>
+    <col min="8193" max="8193" width="13.109375" customWidth="1"/>
+    <col min="8194" max="8194" width="15.6640625" customWidth="1"/>
     <col min="8195" max="8196" width="26" customWidth="1"/>
-    <col min="8197" max="8197" width="15.5" customWidth="1"/>
-    <col min="8198" max="8198" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="8199" max="8199" width="15.25" customWidth="1"/>
-    <col min="8200" max="8200" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="8201" max="8201" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8197" width="15.44140625" customWidth="1"/>
+    <col min="8198" max="8198" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8199" width="15.21875" customWidth="1"/>
+    <col min="8200" max="8200" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="8201" max="8201" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="8202" max="8202" width="24" bestFit="1" customWidth="1"/>
-    <col min="8449" max="8449" width="13.125" customWidth="1"/>
-    <col min="8450" max="8450" width="15.625" customWidth="1"/>
+    <col min="8449" max="8449" width="13.109375" customWidth="1"/>
+    <col min="8450" max="8450" width="15.6640625" customWidth="1"/>
     <col min="8451" max="8452" width="26" customWidth="1"/>
-    <col min="8453" max="8453" width="15.5" customWidth="1"/>
-    <col min="8454" max="8454" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="8455" max="8455" width="15.25" customWidth="1"/>
-    <col min="8456" max="8456" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="8457" max="8457" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8453" width="15.44140625" customWidth="1"/>
+    <col min="8454" max="8454" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8455" width="15.21875" customWidth="1"/>
+    <col min="8456" max="8456" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="8457" max="8457" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="8458" max="8458" width="24" bestFit="1" customWidth="1"/>
-    <col min="8705" max="8705" width="13.125" customWidth="1"/>
-    <col min="8706" max="8706" width="15.625" customWidth="1"/>
+    <col min="8705" max="8705" width="13.109375" customWidth="1"/>
+    <col min="8706" max="8706" width="15.6640625" customWidth="1"/>
     <col min="8707" max="8708" width="26" customWidth="1"/>
-    <col min="8709" max="8709" width="15.5" customWidth="1"/>
-    <col min="8710" max="8710" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="8711" max="8711" width="15.25" customWidth="1"/>
-    <col min="8712" max="8712" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="8713" max="8713" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8709" width="15.44140625" customWidth="1"/>
+    <col min="8710" max="8710" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8711" width="15.21875" customWidth="1"/>
+    <col min="8712" max="8712" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="8713" max="8713" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="8714" max="8714" width="24" bestFit="1" customWidth="1"/>
-    <col min="8961" max="8961" width="13.125" customWidth="1"/>
-    <col min="8962" max="8962" width="15.625" customWidth="1"/>
+    <col min="8961" max="8961" width="13.109375" customWidth="1"/>
+    <col min="8962" max="8962" width="15.6640625" customWidth="1"/>
     <col min="8963" max="8964" width="26" customWidth="1"/>
-    <col min="8965" max="8965" width="15.5" customWidth="1"/>
-    <col min="8966" max="8966" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="8967" max="8967" width="15.25" customWidth="1"/>
-    <col min="8968" max="8968" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="8969" max="8969" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8965" width="15.44140625" customWidth="1"/>
+    <col min="8966" max="8966" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8967" max="8967" width="15.21875" customWidth="1"/>
+    <col min="8968" max="8968" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="8969" max="8969" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="8970" max="8970" width="24" bestFit="1" customWidth="1"/>
-    <col min="9217" max="9217" width="13.125" customWidth="1"/>
-    <col min="9218" max="9218" width="15.625" customWidth="1"/>
+    <col min="9217" max="9217" width="13.109375" customWidth="1"/>
+    <col min="9218" max="9218" width="15.6640625" customWidth="1"/>
     <col min="9219" max="9220" width="26" customWidth="1"/>
-    <col min="9221" max="9221" width="15.5" customWidth="1"/>
-    <col min="9222" max="9222" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="9223" max="9223" width="15.25" customWidth="1"/>
-    <col min="9224" max="9224" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9225" max="9225" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9221" width="15.44140625" customWidth="1"/>
+    <col min="9222" max="9222" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9223" width="15.21875" customWidth="1"/>
+    <col min="9224" max="9224" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="9225" max="9225" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="9226" max="9226" width="24" bestFit="1" customWidth="1"/>
-    <col min="9473" max="9473" width="13.125" customWidth="1"/>
-    <col min="9474" max="9474" width="15.625" customWidth="1"/>
+    <col min="9473" max="9473" width="13.109375" customWidth="1"/>
+    <col min="9474" max="9474" width="15.6640625" customWidth="1"/>
     <col min="9475" max="9476" width="26" customWidth="1"/>
-    <col min="9477" max="9477" width="15.5" customWidth="1"/>
-    <col min="9478" max="9478" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="9479" max="9479" width="15.25" customWidth="1"/>
-    <col min="9480" max="9480" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9481" max="9481" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9477" width="15.44140625" customWidth="1"/>
+    <col min="9478" max="9478" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9479" width="15.21875" customWidth="1"/>
+    <col min="9480" max="9480" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="9481" max="9481" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="9482" max="9482" width="24" bestFit="1" customWidth="1"/>
-    <col min="9729" max="9729" width="13.125" customWidth="1"/>
-    <col min="9730" max="9730" width="15.625" customWidth="1"/>
+    <col min="9729" max="9729" width="13.109375" customWidth="1"/>
+    <col min="9730" max="9730" width="15.6640625" customWidth="1"/>
     <col min="9731" max="9732" width="26" customWidth="1"/>
-    <col min="9733" max="9733" width="15.5" customWidth="1"/>
-    <col min="9734" max="9734" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="9735" max="9735" width="15.25" customWidth="1"/>
-    <col min="9736" max="9736" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9737" max="9737" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9733" width="15.44140625" customWidth="1"/>
+    <col min="9734" max="9734" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9735" width="15.21875" customWidth="1"/>
+    <col min="9736" max="9736" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="9737" max="9737" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="9738" max="9738" width="24" bestFit="1" customWidth="1"/>
-    <col min="9985" max="9985" width="13.125" customWidth="1"/>
-    <col min="9986" max="9986" width="15.625" customWidth="1"/>
+    <col min="9985" max="9985" width="13.109375" customWidth="1"/>
+    <col min="9986" max="9986" width="15.6640625" customWidth="1"/>
     <col min="9987" max="9988" width="26" customWidth="1"/>
-    <col min="9989" max="9989" width="15.5" customWidth="1"/>
-    <col min="9990" max="9990" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="9991" max="9991" width="15.25" customWidth="1"/>
-    <col min="9992" max="9992" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9993" max="9993" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9989" width="15.44140625" customWidth="1"/>
+    <col min="9990" max="9990" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="9991" max="9991" width="15.21875" customWidth="1"/>
+    <col min="9992" max="9992" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="9993" max="9993" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="9994" max="9994" width="24" bestFit="1" customWidth="1"/>
-    <col min="10241" max="10241" width="13.125" customWidth="1"/>
-    <col min="10242" max="10242" width="15.625" customWidth="1"/>
+    <col min="10241" max="10241" width="13.109375" customWidth="1"/>
+    <col min="10242" max="10242" width="15.6640625" customWidth="1"/>
     <col min="10243" max="10244" width="26" customWidth="1"/>
-    <col min="10245" max="10245" width="15.5" customWidth="1"/>
-    <col min="10246" max="10246" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="10247" max="10247" width="15.25" customWidth="1"/>
-    <col min="10248" max="10248" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="10249" max="10249" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10245" width="15.44140625" customWidth="1"/>
+    <col min="10246" max="10246" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10247" width="15.21875" customWidth="1"/>
+    <col min="10248" max="10248" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="10249" max="10249" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="10250" max="10250" width="24" bestFit="1" customWidth="1"/>
-    <col min="10497" max="10497" width="13.125" customWidth="1"/>
-    <col min="10498" max="10498" width="15.625" customWidth="1"/>
+    <col min="10497" max="10497" width="13.109375" customWidth="1"/>
+    <col min="10498" max="10498" width="15.6640625" customWidth="1"/>
     <col min="10499" max="10500" width="26" customWidth="1"/>
-    <col min="10501" max="10501" width="15.5" customWidth="1"/>
-    <col min="10502" max="10502" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="10503" max="10503" width="15.25" customWidth="1"/>
-    <col min="10504" max="10504" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="10505" max="10505" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10501" width="15.44140625" customWidth="1"/>
+    <col min="10502" max="10502" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10503" width="15.21875" customWidth="1"/>
+    <col min="10504" max="10504" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="10505" max="10505" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="10506" max="10506" width="24" bestFit="1" customWidth="1"/>
-    <col min="10753" max="10753" width="13.125" customWidth="1"/>
-    <col min="10754" max="10754" width="15.625" customWidth="1"/>
+    <col min="10753" max="10753" width="13.109375" customWidth="1"/>
+    <col min="10754" max="10754" width="15.6640625" customWidth="1"/>
     <col min="10755" max="10756" width="26" customWidth="1"/>
-    <col min="10757" max="10757" width="15.5" customWidth="1"/>
-    <col min="10758" max="10758" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="10759" max="10759" width="15.25" customWidth="1"/>
-    <col min="10760" max="10760" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="10761" max="10761" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10757" width="15.44140625" customWidth="1"/>
+    <col min="10758" max="10758" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="10759" max="10759" width="15.21875" customWidth="1"/>
+    <col min="10760" max="10760" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="10761" max="10761" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="10762" max="10762" width="24" bestFit="1" customWidth="1"/>
-    <col min="11009" max="11009" width="13.125" customWidth="1"/>
-    <col min="11010" max="11010" width="15.625" customWidth="1"/>
+    <col min="11009" max="11009" width="13.109375" customWidth="1"/>
+    <col min="11010" max="11010" width="15.6640625" customWidth="1"/>
     <col min="11011" max="11012" width="26" customWidth="1"/>
-    <col min="11013" max="11013" width="15.5" customWidth="1"/>
-    <col min="11014" max="11014" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="11015" max="11015" width="15.25" customWidth="1"/>
-    <col min="11016" max="11016" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="11017" max="11017" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11013" width="15.44140625" customWidth="1"/>
+    <col min="11014" max="11014" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11015" width="15.21875" customWidth="1"/>
+    <col min="11016" max="11016" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="11017" max="11017" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="11018" max="11018" width="24" bestFit="1" customWidth="1"/>
-    <col min="11265" max="11265" width="13.125" customWidth="1"/>
-    <col min="11266" max="11266" width="15.625" customWidth="1"/>
+    <col min="11265" max="11265" width="13.109375" customWidth="1"/>
+    <col min="11266" max="11266" width="15.6640625" customWidth="1"/>
     <col min="11267" max="11268" width="26" customWidth="1"/>
-    <col min="11269" max="11269" width="15.5" customWidth="1"/>
-    <col min="11270" max="11270" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="11271" max="11271" width="15.25" customWidth="1"/>
-    <col min="11272" max="11272" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="11273" max="11273" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11269" width="15.44140625" customWidth="1"/>
+    <col min="11270" max="11270" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11271" width="15.21875" customWidth="1"/>
+    <col min="11272" max="11272" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="11273" max="11273" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="11274" max="11274" width="24" bestFit="1" customWidth="1"/>
-    <col min="11521" max="11521" width="13.125" customWidth="1"/>
-    <col min="11522" max="11522" width="15.625" customWidth="1"/>
+    <col min="11521" max="11521" width="13.109375" customWidth="1"/>
+    <col min="11522" max="11522" width="15.6640625" customWidth="1"/>
     <col min="11523" max="11524" width="26" customWidth="1"/>
-    <col min="11525" max="11525" width="15.5" customWidth="1"/>
-    <col min="11526" max="11526" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="11527" max="11527" width="15.25" customWidth="1"/>
-    <col min="11528" max="11528" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="11529" max="11529" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11525" width="15.44140625" customWidth="1"/>
+    <col min="11526" max="11526" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11527" width="15.21875" customWidth="1"/>
+    <col min="11528" max="11528" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="11529" max="11529" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="11530" max="11530" width="24" bestFit="1" customWidth="1"/>
-    <col min="11777" max="11777" width="13.125" customWidth="1"/>
-    <col min="11778" max="11778" width="15.625" customWidth="1"/>
+    <col min="11777" max="11777" width="13.109375" customWidth="1"/>
+    <col min="11778" max="11778" width="15.6640625" customWidth="1"/>
     <col min="11779" max="11780" width="26" customWidth="1"/>
-    <col min="11781" max="11781" width="15.5" customWidth="1"/>
-    <col min="11782" max="11782" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="11783" max="11783" width="15.25" customWidth="1"/>
-    <col min="11784" max="11784" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="11785" max="11785" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11781" width="15.44140625" customWidth="1"/>
+    <col min="11782" max="11782" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="11783" max="11783" width="15.21875" customWidth="1"/>
+    <col min="11784" max="11784" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="11785" max="11785" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="11786" max="11786" width="24" bestFit="1" customWidth="1"/>
-    <col min="12033" max="12033" width="13.125" customWidth="1"/>
-    <col min="12034" max="12034" width="15.625" customWidth="1"/>
+    <col min="12033" max="12033" width="13.109375" customWidth="1"/>
+    <col min="12034" max="12034" width="15.6640625" customWidth="1"/>
     <col min="12035" max="12036" width="26" customWidth="1"/>
-    <col min="12037" max="12037" width="15.5" customWidth="1"/>
-    <col min="12038" max="12038" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="12039" max="12039" width="15.25" customWidth="1"/>
-    <col min="12040" max="12040" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="12041" max="12041" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12037" width="15.44140625" customWidth="1"/>
+    <col min="12038" max="12038" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12039" width="15.21875" customWidth="1"/>
+    <col min="12040" max="12040" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="12041" max="12041" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="12042" max="12042" width="24" bestFit="1" customWidth="1"/>
-    <col min="12289" max="12289" width="13.125" customWidth="1"/>
-    <col min="12290" max="12290" width="15.625" customWidth="1"/>
+    <col min="12289" max="12289" width="13.109375" customWidth="1"/>
+    <col min="12290" max="12290" width="15.6640625" customWidth="1"/>
     <col min="12291" max="12292" width="26" customWidth="1"/>
-    <col min="12293" max="12293" width="15.5" customWidth="1"/>
-    <col min="12294" max="12294" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="12295" max="12295" width="15.25" customWidth="1"/>
-    <col min="12296" max="12296" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="12297" max="12297" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12293" width="15.44140625" customWidth="1"/>
+    <col min="12294" max="12294" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12295" width="15.21875" customWidth="1"/>
+    <col min="12296" max="12296" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="12297" max="12297" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="12298" max="12298" width="24" bestFit="1" customWidth="1"/>
-    <col min="12545" max="12545" width="13.125" customWidth="1"/>
-    <col min="12546" max="12546" width="15.625" customWidth="1"/>
+    <col min="12545" max="12545" width="13.109375" customWidth="1"/>
+    <col min="12546" max="12546" width="15.6640625" customWidth="1"/>
     <col min="12547" max="12548" width="26" customWidth="1"/>
-    <col min="12549" max="12549" width="15.5" customWidth="1"/>
-    <col min="12550" max="12550" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="12551" max="12551" width="15.25" customWidth="1"/>
-    <col min="12552" max="12552" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="12553" max="12553" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12549" width="15.44140625" customWidth="1"/>
+    <col min="12550" max="12550" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12551" width="15.21875" customWidth="1"/>
+    <col min="12552" max="12552" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="12553" max="12553" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="12554" max="12554" width="24" bestFit="1" customWidth="1"/>
-    <col min="12801" max="12801" width="13.125" customWidth="1"/>
-    <col min="12802" max="12802" width="15.625" customWidth="1"/>
+    <col min="12801" max="12801" width="13.109375" customWidth="1"/>
+    <col min="12802" max="12802" width="15.6640625" customWidth="1"/>
     <col min="12803" max="12804" width="26" customWidth="1"/>
-    <col min="12805" max="12805" width="15.5" customWidth="1"/>
-    <col min="12806" max="12806" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="12807" max="12807" width="15.25" customWidth="1"/>
-    <col min="12808" max="12808" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="12809" max="12809" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12805" width="15.44140625" customWidth="1"/>
+    <col min="12806" max="12806" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="12807" max="12807" width="15.21875" customWidth="1"/>
+    <col min="12808" max="12808" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="12809" max="12809" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="12810" max="12810" width="24" bestFit="1" customWidth="1"/>
-    <col min="13057" max="13057" width="13.125" customWidth="1"/>
-    <col min="13058" max="13058" width="15.625" customWidth="1"/>
+    <col min="13057" max="13057" width="13.109375" customWidth="1"/>
+    <col min="13058" max="13058" width="15.6640625" customWidth="1"/>
     <col min="13059" max="13060" width="26" customWidth="1"/>
-    <col min="13061" max="13061" width="15.5" customWidth="1"/>
-    <col min="13062" max="13062" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="13063" max="13063" width="15.25" customWidth="1"/>
-    <col min="13064" max="13064" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="13065" max="13065" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13061" width="15.44140625" customWidth="1"/>
+    <col min="13062" max="13062" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13063" width="15.21875" customWidth="1"/>
+    <col min="13064" max="13064" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="13065" max="13065" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="13066" max="13066" width="24" bestFit="1" customWidth="1"/>
-    <col min="13313" max="13313" width="13.125" customWidth="1"/>
-    <col min="13314" max="13314" width="15.625" customWidth="1"/>
+    <col min="13313" max="13313" width="13.109375" customWidth="1"/>
+    <col min="13314" max="13314" width="15.6640625" customWidth="1"/>
     <col min="13315" max="13316" width="26" customWidth="1"/>
-    <col min="13317" max="13317" width="15.5" customWidth="1"/>
-    <col min="13318" max="13318" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="13319" max="13319" width="15.25" customWidth="1"/>
-    <col min="13320" max="13320" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="13321" max="13321" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13317" width="15.44140625" customWidth="1"/>
+    <col min="13318" max="13318" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13319" width="15.21875" customWidth="1"/>
+    <col min="13320" max="13320" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="13321" max="13321" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="13322" max="13322" width="24" bestFit="1" customWidth="1"/>
-    <col min="13569" max="13569" width="13.125" customWidth="1"/>
-    <col min="13570" max="13570" width="15.625" customWidth="1"/>
+    <col min="13569" max="13569" width="13.109375" customWidth="1"/>
+    <col min="13570" max="13570" width="15.6640625" customWidth="1"/>
     <col min="13571" max="13572" width="26" customWidth="1"/>
-    <col min="13573" max="13573" width="15.5" customWidth="1"/>
-    <col min="13574" max="13574" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="13575" max="13575" width="15.25" customWidth="1"/>
-    <col min="13576" max="13576" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="13577" max="13577" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13573" width="15.44140625" customWidth="1"/>
+    <col min="13574" max="13574" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13575" width="15.21875" customWidth="1"/>
+    <col min="13576" max="13576" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="13577" max="13577" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="13578" max="13578" width="24" bestFit="1" customWidth="1"/>
-    <col min="13825" max="13825" width="13.125" customWidth="1"/>
-    <col min="13826" max="13826" width="15.625" customWidth="1"/>
+    <col min="13825" max="13825" width="13.109375" customWidth="1"/>
+    <col min="13826" max="13826" width="15.6640625" customWidth="1"/>
     <col min="13827" max="13828" width="26" customWidth="1"/>
-    <col min="13829" max="13829" width="15.5" customWidth="1"/>
-    <col min="13830" max="13830" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="13831" max="13831" width="15.25" customWidth="1"/>
-    <col min="13832" max="13832" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="13833" max="13833" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13829" width="15.44140625" customWidth="1"/>
+    <col min="13830" max="13830" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="13831" max="13831" width="15.21875" customWidth="1"/>
+    <col min="13832" max="13832" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="13833" max="13833" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="13834" max="13834" width="24" bestFit="1" customWidth="1"/>
-    <col min="14081" max="14081" width="13.125" customWidth="1"/>
-    <col min="14082" max="14082" width="15.625" customWidth="1"/>
+    <col min="14081" max="14081" width="13.109375" customWidth="1"/>
+    <col min="14082" max="14082" width="15.6640625" customWidth="1"/>
     <col min="14083" max="14084" width="26" customWidth="1"/>
-    <col min="14085" max="14085" width="15.5" customWidth="1"/>
-    <col min="14086" max="14086" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="14087" max="14087" width="15.25" customWidth="1"/>
-    <col min="14088" max="14088" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="14089" max="14089" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14085" width="15.44140625" customWidth="1"/>
+    <col min="14086" max="14086" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14087" width="15.21875" customWidth="1"/>
+    <col min="14088" max="14088" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="14089" max="14089" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="14090" max="14090" width="24" bestFit="1" customWidth="1"/>
-    <col min="14337" max="14337" width="13.125" customWidth="1"/>
-    <col min="14338" max="14338" width="15.625" customWidth="1"/>
+    <col min="14337" max="14337" width="13.109375" customWidth="1"/>
+    <col min="14338" max="14338" width="15.6640625" customWidth="1"/>
     <col min="14339" max="14340" width="26" customWidth="1"/>
-    <col min="14341" max="14341" width="15.5" customWidth="1"/>
-    <col min="14342" max="14342" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="14343" max="14343" width="15.25" customWidth="1"/>
-    <col min="14344" max="14344" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="14345" max="14345" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14341" width="15.44140625" customWidth="1"/>
+    <col min="14342" max="14342" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14343" width="15.21875" customWidth="1"/>
+    <col min="14344" max="14344" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="14345" max="14345" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="14346" max="14346" width="24" bestFit="1" customWidth="1"/>
-    <col min="14593" max="14593" width="13.125" customWidth="1"/>
-    <col min="14594" max="14594" width="15.625" customWidth="1"/>
+    <col min="14593" max="14593" width="13.109375" customWidth="1"/>
+    <col min="14594" max="14594" width="15.6640625" customWidth="1"/>
     <col min="14595" max="14596" width="26" customWidth="1"/>
-    <col min="14597" max="14597" width="15.5" customWidth="1"/>
-    <col min="14598" max="14598" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="14599" max="14599" width="15.25" customWidth="1"/>
-    <col min="14600" max="14600" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="14601" max="14601" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14597" width="15.44140625" customWidth="1"/>
+    <col min="14598" max="14598" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14599" width="15.21875" customWidth="1"/>
+    <col min="14600" max="14600" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="14601" max="14601" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="14602" max="14602" width="24" bestFit="1" customWidth="1"/>
-    <col min="14849" max="14849" width="13.125" customWidth="1"/>
-    <col min="14850" max="14850" width="15.625" customWidth="1"/>
+    <col min="14849" max="14849" width="13.109375" customWidth="1"/>
+    <col min="14850" max="14850" width="15.6640625" customWidth="1"/>
     <col min="14851" max="14852" width="26" customWidth="1"/>
-    <col min="14853" max="14853" width="15.5" customWidth="1"/>
-    <col min="14854" max="14854" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="14855" max="14855" width="15.25" customWidth="1"/>
-    <col min="14856" max="14856" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="14857" max="14857" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14853" width="15.44140625" customWidth="1"/>
+    <col min="14854" max="14854" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="14855" max="14855" width="15.21875" customWidth="1"/>
+    <col min="14856" max="14856" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="14857" max="14857" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="14858" max="14858" width="24" bestFit="1" customWidth="1"/>
-    <col min="15105" max="15105" width="13.125" customWidth="1"/>
-    <col min="15106" max="15106" width="15.625" customWidth="1"/>
+    <col min="15105" max="15105" width="13.109375" customWidth="1"/>
+    <col min="15106" max="15106" width="15.6640625" customWidth="1"/>
     <col min="15107" max="15108" width="26" customWidth="1"/>
-    <col min="15109" max="15109" width="15.5" customWidth="1"/>
-    <col min="15110" max="15110" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="15111" max="15111" width="15.25" customWidth="1"/>
-    <col min="15112" max="15112" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="15113" max="15113" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15109" width="15.44140625" customWidth="1"/>
+    <col min="15110" max="15110" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15111" width="15.21875" customWidth="1"/>
+    <col min="15112" max="15112" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="15113" max="15113" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="15114" max="15114" width="24" bestFit="1" customWidth="1"/>
-    <col min="15361" max="15361" width="13.125" customWidth="1"/>
-    <col min="15362" max="15362" width="15.625" customWidth="1"/>
+    <col min="15361" max="15361" width="13.109375" customWidth="1"/>
+    <col min="15362" max="15362" width="15.6640625" customWidth="1"/>
     <col min="15363" max="15364" width="26" customWidth="1"/>
-    <col min="15365" max="15365" width="15.5" customWidth="1"/>
-    <col min="15366" max="15366" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="15367" max="15367" width="15.25" customWidth="1"/>
-    <col min="15368" max="15368" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="15369" max="15369" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15365" width="15.44140625" customWidth="1"/>
+    <col min="15366" max="15366" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15367" width="15.21875" customWidth="1"/>
+    <col min="15368" max="15368" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="15369" max="15369" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="15370" max="15370" width="24" bestFit="1" customWidth="1"/>
-    <col min="15617" max="15617" width="13.125" customWidth="1"/>
-    <col min="15618" max="15618" width="15.625" customWidth="1"/>
+    <col min="15617" max="15617" width="13.109375" customWidth="1"/>
+    <col min="15618" max="15618" width="15.6640625" customWidth="1"/>
     <col min="15619" max="15620" width="26" customWidth="1"/>
-    <col min="15621" max="15621" width="15.5" customWidth="1"/>
-    <col min="15622" max="15622" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="15623" max="15623" width="15.25" customWidth="1"/>
-    <col min="15624" max="15624" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="15625" max="15625" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15621" width="15.44140625" customWidth="1"/>
+    <col min="15622" max="15622" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15623" width="15.21875" customWidth="1"/>
+    <col min="15624" max="15624" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="15625" max="15625" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="15626" max="15626" width="24" bestFit="1" customWidth="1"/>
-    <col min="15873" max="15873" width="13.125" customWidth="1"/>
-    <col min="15874" max="15874" width="15.625" customWidth="1"/>
+    <col min="15873" max="15873" width="13.109375" customWidth="1"/>
+    <col min="15874" max="15874" width="15.6640625" customWidth="1"/>
     <col min="15875" max="15876" width="26" customWidth="1"/>
-    <col min="15877" max="15877" width="15.5" customWidth="1"/>
-    <col min="15878" max="15878" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="15879" max="15879" width="15.25" customWidth="1"/>
-    <col min="15880" max="15880" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="15881" max="15881" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15877" width="15.44140625" customWidth="1"/>
+    <col min="15878" max="15878" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="15879" max="15879" width="15.21875" customWidth="1"/>
+    <col min="15880" max="15880" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="15881" max="15881" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="15882" max="15882" width="24" bestFit="1" customWidth="1"/>
-    <col min="16129" max="16129" width="13.125" customWidth="1"/>
-    <col min="16130" max="16130" width="15.625" customWidth="1"/>
+    <col min="16129" max="16129" width="13.109375" customWidth="1"/>
+    <col min="16130" max="16130" width="15.6640625" customWidth="1"/>
     <col min="16131" max="16132" width="26" customWidth="1"/>
-    <col min="16133" max="16133" width="15.5" customWidth="1"/>
-    <col min="16134" max="16134" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="16135" max="16135" width="15.25" customWidth="1"/>
-    <col min="16136" max="16136" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="16137" max="16137" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16133" width="15.44140625" customWidth="1"/>
+    <col min="16134" max="16134" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16135" width="15.21875" customWidth="1"/>
+    <col min="16136" max="16136" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="16137" max="16137" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="16138" max="16138" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1303,7 +1340,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -1323,7 +1360,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
@@ -1343,7 +1380,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -1354,126 +1391,132 @@
         <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="G4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="G4" t="s">
+      <c r="B5" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+    <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>30</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>32</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="F7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>34</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>36</v>
       </c>
       <c r="H7" s="12">
         <v>57455</v>
       </c>
       <c r="I7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" t="s">
         <v>37</v>
       </c>
-      <c r="J7" t="s">
+    </row>
+    <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K7" t="s">
+      <c r="D8" s="11" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="11" t="s">
+      <c r="E8" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="F8" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>43</v>
-      </c>
       <c r="G8" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H8" s="12">
         <v>57456</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J8" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="11" t="s">
+    </row>
+    <row r="12" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+      <c r="C12" t="s">
         <v>45</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="D12" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>47</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>48</v>
       </c>
-      <c r="E12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" t="s">
-        <v>50</v>
-      </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H12" s="14">
         <v>57257</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
@@ -1484,19 +1527,19 @@
         <v>23</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -1507,19 +1550,19 @@
         <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -1527,102 +1570,102 @@
         <v>13</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="F17" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C20" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="F20" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>43</v>
-      </c>
       <c r="G20" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H20" s="12">
         <v>57258</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J20" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="L20" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="K20" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="L20" s="11" t="s">
-        <v>46</v>
-      </c>
     </row>
-    <row r="21" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C21" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>60</v>
-      </c>
       <c r="F21" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H21" s="12">
         <v>57335</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" tooltip="mailto:g01@800jit.com"/>
-    <hyperlink ref="I12" r:id="rId2"/>
-    <hyperlink ref="I20" r:id="rId3"/>
-    <hyperlink ref="I21" r:id="rId4"/>
-    <hyperlink ref="C21" r:id="rId5"/>
-    <hyperlink ref="E2" r:id="rId6" tooltip="mailto:cs-lilei@w01.com"/>
-    <hyperlink ref="I8" r:id="rId7" tooltip="http://www.800jit.com"/>
-    <hyperlink ref="C7" r:id="rId8"/>
+    <hyperlink ref="E3" r:id="rId1" tooltip="mailto:g01@800jit.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I12" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="I20" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I21" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C21" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E2" r:id="rId6" tooltip="mailto:cs-lilei@w01.com" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="I8" r:id="rId7" tooltip="http://www.800jit.com" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C7" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
